--- a/Master-functional-testcases/partner-management/TC_PartnerManagement.xlsx
+++ b/Master-functional-testcases/partner-management/TC_PartnerManagement.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="1.2" sheetId="2" r:id="rId2"/>
+    <sheet name="1.1.4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="326">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -793,6 +794,216 @@
   </si>
   <si>
     <t>Partner Admin  should be able to re-issue a MISP license key</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>IDA_PM_01</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a specific policy</t>
+  </si>
+  <si>
+    <t>The searched policy should be returned</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>IDA_PM_02</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a specific policygroup</t>
+  </si>
+  <si>
+    <t>The searched policygroup should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_03</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a specific device type</t>
+  </si>
+  <si>
+    <t>The searched devicetype should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_04</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a specific device</t>
+  </si>
+  <si>
+    <t>The searched device should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_05</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a specific registered device</t>
+  </si>
+  <si>
+    <t>The searched registered device should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_06</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a Secure Biometric Interface</t>
+  </si>
+  <si>
+    <t>The searched Secure Biometric Interface should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_07</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a Partner</t>
+  </si>
+  <si>
+    <t>The searched partner should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_08</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search for a partner type</t>
+  </si>
+  <si>
+    <t>The searched partner type should be returned</t>
+  </si>
+  <si>
+    <t>IDA_PM_09</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on policy</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the policy</t>
+  </si>
+  <si>
+    <t>IDA_PM_10</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on policygroup</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the policygroup</t>
+  </si>
+  <si>
+    <t>IDA_PM_11</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on device type</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the devicetype</t>
+  </si>
+  <si>
+    <t>IDA_PM_12</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on device</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the device</t>
+  </si>
+  <si>
+    <t>IDA_PM_13</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on registered device</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the registered device</t>
+  </si>
+  <si>
+    <t>IDA_PM_14</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on Secure Biometric Interface</t>
+  </si>
+  <si>
+    <t>The results should be filtered on Secure Biometric Interface</t>
+  </si>
+  <si>
+    <t>IDA_PM_15</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on Partner</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the partner</t>
+  </si>
+  <si>
+    <t>IDA_PM_16</t>
+  </si>
+  <si>
+    <t>Verify admin is able to filter based on partner type</t>
+  </si>
+  <si>
+    <t>The results should be filtered on the partnertype</t>
+  </si>
+  <si>
+    <t>IDA_PM_17</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search/filter based on multiple fields</t>
+  </si>
+  <si>
+    <t>The results should be filtered on chosen fields</t>
+  </si>
+  <si>
+    <t>IDA_PM_18</t>
+  </si>
+  <si>
+    <t>Verify the different type of filters :  Exact Search, in Between search, contains search, Starts with Search</t>
+  </si>
+  <si>
+    <t>Search/Filter should work as expected</t>
+  </si>
+  <si>
+    <t>IDA_PM_19</t>
+  </si>
+  <si>
+    <t>Verify default sort is done on date</t>
+  </si>
+  <si>
+    <t>Default sort should be done on date</t>
+  </si>
+  <si>
+    <t>IDA_PM_20</t>
+  </si>
+  <si>
+    <t>Verify default sort type is ascending</t>
+  </si>
+  <si>
+    <t>Default sort type should be in ascending order</t>
+  </si>
+  <si>
+    <t>IDA_PM_21</t>
+  </si>
+  <si>
+    <t>Verify pagination is defaulted to 10 rows</t>
+  </si>
+  <si>
+    <t>Pagination should be defaulted to 10 rows per page</t>
+  </si>
+  <si>
+    <t>IDA_PM_22</t>
+  </si>
+  <si>
+    <t>Verify pagination works as expected (verify from and to pages)</t>
+  </si>
+  <si>
+    <t>Pagination must be displayed for the filter results</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -853,11 +1064,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,6 +1087,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3141,4 +3365,636 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B23">
+      <formula1>"Admin, Credential Services, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H23">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23">
+      <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>